--- a/biology/Zoologie/Dysderidae/Dysderidae.xlsx
+++ b/biology/Zoologie/Dysderidae/Dysderidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dysderidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dysderidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Eurasie et en Afrique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Eurasie et en Afrique du Nord.
 Dysdera crocata est presque cosmopolite par introduction.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées errantes nocturnes haplogynes, de moyenne ou grande taille. 
 Elles passent la journée enfermées dans une loge de soie placée dans la litière près du sol. Elles comptent 6 yeux adultes et mesurent de 6 à 20 mm. Les chélicères sont puissantes et proclives afin de percer le corps armoré de leur proies: les cloportes et les coléoptères. La morsure de ces espèces, très douloureuse, semble moyennement toxique et engendrerait des réactions locales.
@@ -586,9 +602,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -617,9 +635,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 21/03/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 21/03/2024) :
 Cryptoparachtes Dunin, 1992
 Dasumia Thorell, 1875
 Dysdera Latreille, 1804
@@ -644,7 +664,7 @@
 Stalitella Absolon &amp; Kratochvíl, 1933
 Stalitochara Simon, 1913
 Tedia Simon, 1882
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Dasumiana Wunderlich, 2004
 † Mistura Petrunkevitch, 1971
 † Segistriites Straus, 1967</t>
@@ -675,10 +695,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par C. L. Koch en 1837.
-Cette famille rassemble 643 espèces actuelles dans 24 genres[1].
+Cette famille rassemble 643 espèces actuelles dans 24 genres.
 </t>
         </is>
       </c>
@@ -707,7 +729,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>C. L. Koch, 1837: Übersicht des Arachnidensystems. Nürnberg, vol. 1, p. 1-39 (texte intégral).</t>
         </is>
